--- a/TP 2/EJ 10/EJ 10.xlsx
+++ b/TP 2/EJ 10/EJ 10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leo_2\OneDrive\Documentos\GitHub\Recuperacion de la Informacion\Recuperacion-de-la-Informacion\TP 2\EJ 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDB27D6-F80F-4DEE-A88E-06583C8AE715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371DA20E-E2BB-4579-AF62-3CB7FCB4BF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="31">
   <si>
     <t>Query 1</t>
   </si>
@@ -110,12 +110,21 @@
   <si>
     <t>Precision media a intervalos de 20% recall</t>
   </si>
+  <si>
+    <t>p@5</t>
+  </si>
+  <si>
+    <t>p@10</t>
+  </si>
+  <si>
+    <t>p@20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +207,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -295,7 +320,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
@@ -315,8 +340,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
@@ -328,18 +354,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="19" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="19" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="Accent" xfId="3" xr:uid="{E14B7A88-8DA8-4F4D-845E-E628CC842A8A}"/>
     <cellStyle name="Accent 1" xfId="4" xr:uid="{5494C6CD-F778-4B83-9353-9819BFA0FDA7}"/>
     <cellStyle name="Accent 2" xfId="5" xr:uid="{CC35FAE5-3848-4C7E-804C-811974CA80C3}"/>
@@ -351,6 +389,7 @@
     <cellStyle name="Heading (user)" xfId="11" xr:uid="{0CEEFD10-90A4-4F53-9CC0-B783CFB18259}"/>
     <cellStyle name="Heading 1" xfId="12" xr:uid="{1298F2F7-FC12-4748-A5EA-5031AF329E21}"/>
     <cellStyle name="Heading 2" xfId="13" xr:uid="{56E07C8A-FEC6-4C0B-B4C3-4472E2DFDCEB}"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="14" xr:uid="{128F4AE4-4D9F-4379-8C86-859573F13A9A}"/>
     <cellStyle name="Neutral 2" xfId="2" xr:uid="{3C169F82-C24D-4EF1-BD70-22503728AF21}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,6 +410,1081 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>P@X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> SRI A, SRI B, SRI C</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AG$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRI A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$AF$41:$AF$43</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>p@5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>p@10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>p@20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AG$41:$AG$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A14-4C52-80F4-D5A5F5156C56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AH$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRI B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$AF$41:$AF$43</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>p@5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>p@10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>p@20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AH$41:$AH$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A14-4C52-80F4-D5A5F5156C56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AI$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRI C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$AF$41:$AF$43</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>p@5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>p@10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>p@20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AI$41:$AI$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A14-4C52-80F4-D5A5F5156C56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1269934624"/>
+        <c:axId val="1269937504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1269934624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269937504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1269937504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269934624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD97CEB5-7B31-4310-F859-AA8F1BED31EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,70 +1750,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AC66"/>
+  <dimension ref="B2:AI66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="V53" sqref="V53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:29">
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
     </row>
     <row r="3" spans="2:29">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
+      <c r="S3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="7" t="s">
+      <c r="AA3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
     </row>
     <row r="4" spans="2:29">
       <c r="B4" s="3" t="s">
@@ -2675,50 +3789,50 @@
       </c>
     </row>
     <row r="30" spans="2:29">
-      <c r="Q30" s="8" t="s">
+      <c r="Q30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="R30" s="8"/>
+      <c r="R30" s="14"/>
       <c r="S30" s="5">
-        <f>SUM(S5:S29)/$Q$29</f>
-        <v>0.45885688431160238</v>
+        <f>SUM(S5,S6,S7,S11,S14,S26)/6</f>
+        <v>0.72402597402597391</v>
       </c>
       <c r="T30" s="5">
-        <f>SUM(T5:T29)/$Q$29</f>
-        <v>0.17049142355079894</v>
+        <f>SUM(T9,T12,T18,T23,T24,T28)/6</f>
+        <v>0.22913533834586466</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" ref="U30" si="27">SUM(U5:U29)/$Q$29</f>
-        <v>0.36920947204035104</v>
+        <f>SUM(U6,U9,U10,U11,U14,U16)/6</f>
+        <v>0.49523809523809526</v>
       </c>
       <c r="V30" s="5"/>
       <c r="W30" s="5">
-        <f>SUM(W5:W29)/$Q$29</f>
-        <v>0.45157237580325488</v>
+        <f>SUM(W5,W7,W8,W9,W16,W19,W28)/7</f>
+        <v>0.61785714285714288</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" ref="X30" si="28">SUM(X5:X29)/$Q$29</f>
-        <v>0.22546303261806028</v>
+        <f>SUM(X6,X12,X16,X22,X25,X27,X28)/7</f>
+        <v>0.28755052745735982</v>
       </c>
       <c r="Y30" s="5">
-        <f>SUM(Y5:Y29)/$Q$29</f>
-        <v>0.27162902916021781</v>
+        <f>SUM(Y6,Y10,Y12,Y18,Y22,Y27,Y28)/7</f>
+        <v>0.33205166124420776</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5">
-        <f>SUM(AA5:AA29)/$Q$29</f>
-        <v>0.26202441155560019</v>
+        <f>SUM(AA6,AA8,AA17,AA20,AA22,AA27,AA29)/7</f>
+        <v>0.32848808196634277</v>
       </c>
       <c r="AB30" s="5">
-        <f t="shared" ref="AB30:AC30" si="29">SUM(AB5:AB29)/$Q$29</f>
-        <v>0.28768178628478802</v>
+        <f>SUM(AB6,AB9,AB14,AB17,AB20,AB23,AB27)/7</f>
+        <v>0.34861851535192495</v>
       </c>
       <c r="AC30" s="5">
-        <f t="shared" si="29"/>
-        <v>0.2280464730256358</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29">
+        <f>SUM(AC8,AC14,AC17,AC18,AC19,AC20,AC23)/7</f>
+        <v>0.29189112892120411</v>
+      </c>
+    </row>
+    <row r="33" spans="2:35">
       <c r="B33" s="6" t="s">
         <v>7</v>
       </c>
@@ -2798,7 +3912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:29">
+    <row r="34" spans="2:35">
       <c r="B34" s="6" t="s">
         <v>8</v>
       </c>
@@ -2878,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:29">
+    <row r="35" spans="2:35">
       <c r="B35" s="6" t="s">
         <v>9</v>
       </c>
@@ -2958,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:29">
+    <row r="36" spans="2:35">
       <c r="B36" s="6" t="s">
         <v>10</v>
       </c>
@@ -3038,79 +4152,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:29">
-      <c r="C39" s="9" t="s">
+    <row r="39" spans="2:35">
+      <c r="C39" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="Q39" s="9" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="Q39" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-    </row>
-    <row r="40" spans="2:29">
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+    </row>
+    <row r="40" spans="2:35">
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="E40" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="7" t="s">
+      <c r="M40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
+      <c r="S40" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
       <c r="V40" s="2"/>
-      <c r="W40" s="7" t="s">
+      <c r="W40" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="7" t="s">
+      <c r="AA40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7"/>
-    </row>
-    <row r="41" spans="2:29">
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI40" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:35">
       <c r="C41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,8 +4301,23 @@
       <c r="AC41" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:29">
+      <c r="AF41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG41" s="5">
+        <f>SUM(S9,W9,AA9)/3</f>
+        <v>0.6</v>
+      </c>
+      <c r="AH41" s="5">
+        <f>(SUM(T9,X9,AB9))/3</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="AI41" s="5">
+        <f>(SUM(U9,Y9,AC9))/3</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="42" spans="2:35">
       <c r="C42" s="1">
         <v>1</v>
       </c>
@@ -3212,7 +4351,7 @@
       <c r="O42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="Q42" s="7">
         <v>0.2</v>
       </c>
       <c r="R42" s="2"/>
@@ -3254,8 +4393,23 @@
         <f>SUM(AC14:AC29)/16</f>
         <v>0.29409543156287338</v>
       </c>
-    </row>
-    <row r="43" spans="2:29">
+      <c r="AF42" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG42" s="5">
+        <f>(SUM(S14,W14,AA14))/3</f>
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="AH42" s="5">
+        <f>(SUM(T14,X14,AB14))/3</f>
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="AI42" s="5">
+        <f>(SUM(U14,Y14,AC14))/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="43" spans="2:35">
       <c r="C43" s="1">
         <v>2</v>
       </c>
@@ -3289,7 +4443,7 @@
       <c r="O43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q43" s="10">
+      <c r="Q43" s="7">
         <v>0.4</v>
       </c>
       <c r="R43" s="2"/>
@@ -3331,8 +4485,23 @@
         <f>SUM(AC17:AC29)/13</f>
         <v>0.31977246588624042</v>
       </c>
-    </row>
-    <row r="44" spans="2:29">
+      <c r="AF43" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG43" s="5">
+        <f>SUM(S24,W24,AA24)/3</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="AH43" s="5">
+        <f>SUM(T24,X24,AB24)/3</f>
+        <v>0.25</v>
+      </c>
+      <c r="AI43" s="5">
+        <f>SUM(U24,Y24,AC24)/3</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:35">
       <c r="C44" s="1">
         <v>3</v>
       </c>
@@ -3366,7 +4535,7 @@
       <c r="O44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="Q44" s="7">
         <v>0.6</v>
       </c>
       <c r="R44" s="2"/>
@@ -3409,7 +4578,7 @@
         <v>0.33095986727614624</v>
       </c>
     </row>
-    <row r="45" spans="2:29">
+    <row r="45" spans="2:35">
       <c r="C45" s="1">
         <v>4</v>
       </c>
@@ -3443,7 +4612,7 @@
       <c r="O45" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q45" s="10">
+      <c r="Q45" s="7">
         <v>0.8</v>
       </c>
       <c r="R45" s="2"/>
@@ -3466,7 +4635,7 @@
       </c>
       <c r="X45" s="4">
         <f>SUM(X27:X30)/3</f>
-        <v>0.3526664215007061</v>
+        <v>0.37336225311380594</v>
       </c>
       <c r="Y45" s="4">
         <f>SUM(Y27:Y29)/3</f>
@@ -3486,7 +4655,7 @@
         <v>0.33072252067042757</v>
       </c>
     </row>
-    <row r="46" spans="2:29">
+    <row r="46" spans="2:35">
       <c r="C46" s="1">
         <v>5</v>
       </c>
@@ -3520,7 +4689,7 @@
       <c r="O46" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q46" s="10">
+      <c r="Q46" s="7">
         <v>1</v>
       </c>
       <c r="R46" s="2"/>
@@ -3563,7 +4732,7 @@
         <v>0.32085009955719335</v>
       </c>
     </row>
-    <row r="47" spans="2:29">
+    <row r="47" spans="2:35">
       <c r="C47" s="1">
         <v>6</v>
       </c>
@@ -3598,7 +4767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="2:29">
+    <row r="48" spans="2:35">
       <c r="C48" s="1">
         <v>7</v>
       </c>
@@ -3633,7 +4802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="3:15">
+    <row r="49" spans="3:20">
       <c r="C49" s="1">
         <v>8</v>
       </c>
@@ -3667,8 +4836,12 @@
       <c r="O49" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="3:15">
+      <c r="Q49" s="9"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+    </row>
+    <row r="50" spans="3:20">
       <c r="C50" s="1">
         <v>9</v>
       </c>
@@ -3702,8 +4875,9 @@
       <c r="O50" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="3:15">
+      <c r="Q50" s="8"/>
+    </row>
+    <row r="51" spans="3:20">
       <c r="C51" s="1">
         <v>10</v>
       </c>
@@ -3737,8 +4911,9 @@
       <c r="O51" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="3:15">
+      <c r="Q51" s="8"/>
+    </row>
+    <row r="52" spans="3:20">
       <c r="C52" s="1">
         <v>11</v>
       </c>
@@ -3772,8 +4947,9 @@
       <c r="O52" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="3:15">
+      <c r="Q52" s="8"/>
+    </row>
+    <row r="53" spans="3:20">
       <c r="C53" s="1">
         <v>12</v>
       </c>
@@ -3808,7 +4984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="3:15">
+    <row r="54" spans="3:20">
       <c r="C54" s="1">
         <v>13</v>
       </c>
@@ -3843,7 +5019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="3:15">
+    <row r="55" spans="3:20">
       <c r="C55" s="1">
         <v>14</v>
       </c>
@@ -3878,7 +5054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="3:15">
+    <row r="56" spans="3:20">
       <c r="C56" s="1">
         <v>15</v>
       </c>
@@ -3913,7 +5089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="3:15">
+    <row r="57" spans="3:20">
       <c r="C57" s="1">
         <v>16</v>
       </c>
@@ -3948,7 +5124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="3:15">
+    <row r="58" spans="3:20">
       <c r="C58" s="1">
         <v>17</v>
       </c>
@@ -3983,7 +5159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="3:15">
+    <row r="59" spans="3:20">
       <c r="C59" s="1">
         <v>18</v>
       </c>
@@ -4018,7 +5194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="3:15">
+    <row r="60" spans="3:20">
       <c r="C60" s="1">
         <v>19</v>
       </c>
@@ -4053,7 +5229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="3:15">
+    <row r="61" spans="3:20">
       <c r="C61" s="1">
         <v>20</v>
       </c>
@@ -4088,7 +5264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="3:15">
+    <row r="62" spans="3:20">
       <c r="C62" s="1">
         <v>21</v>
       </c>
@@ -4123,7 +5299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="3:15">
+    <row r="63" spans="3:20">
       <c r="C63" s="1">
         <v>22</v>
       </c>
@@ -4158,7 +5334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="3:15">
+    <row r="64" spans="3:20">
       <c r="C64" s="1">
         <v>23</v>
       </c>
@@ -4265,23 +5441,24 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="Q2:AC2"/>
     <mergeCell ref="Q39:AC39"/>
     <mergeCell ref="C39:O39"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:N3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="S40:U40"/>
     <mergeCell ref="W40:Y40"/>
     <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="M40:O40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>